--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H2">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I2">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J2">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0009183333333333334</v>
+        <v>0.08949833333333333</v>
       </c>
       <c r="N2">
-        <v>0.002755</v>
+        <v>0.268495</v>
       </c>
       <c r="O2">
-        <v>0.008176384346453142</v>
+        <v>0.8034178059852001</v>
       </c>
       <c r="P2">
-        <v>0.008176384346453142</v>
+        <v>0.8034178059852</v>
       </c>
       <c r="Q2">
-        <v>0.001642099995555556</v>
+        <v>0.9786547881766666</v>
       </c>
       <c r="R2">
-        <v>0.01477889996</v>
+        <v>8.80789309359</v>
       </c>
       <c r="S2">
-        <v>0.0007159008502678649</v>
+        <v>0.2971093895532283</v>
       </c>
       <c r="T2">
-        <v>0.000715900850267865</v>
+        <v>0.2971093895532282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.788130666666667</v>
+        <v>10.934894</v>
       </c>
       <c r="H3">
-        <v>5.364392</v>
+        <v>32.804682</v>
       </c>
       <c r="I3">
-        <v>0.08755714261138148</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="J3">
-        <v>0.08755714261138149</v>
+        <v>0.3698068269583527</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08949833333333333</v>
+        <v>0.02189866666666667</v>
       </c>
       <c r="N3">
-        <v>0.268495</v>
+        <v>0.065696</v>
       </c>
       <c r="O3">
-        <v>0.796848753212681</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="P3">
-        <v>0.796848753212681</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="Q3">
-        <v>0.1600347144488889</v>
+        <v>0.2394595987413333</v>
       </c>
       <c r="R3">
-        <v>1.44031243004</v>
+        <v>2.155136388672</v>
       </c>
       <c r="S3">
-        <v>0.06976979992474423</v>
+        <v>0.07269743740512444</v>
       </c>
       <c r="T3">
-        <v>0.06976979992474425</v>
+        <v>0.07269743740512444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.788130666666667</v>
+        <v>11.451921</v>
       </c>
       <c r="H4">
-        <v>5.364392</v>
+        <v>34.355763</v>
       </c>
       <c r="I4">
-        <v>0.08755714261138148</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J4">
-        <v>0.08755714261138149</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02189866666666667</v>
+        <v>0.08949833333333333</v>
       </c>
       <c r="N4">
-        <v>0.065696</v>
+        <v>0.268495</v>
       </c>
       <c r="O4">
-        <v>0.1949748624408659</v>
+        <v>0.8034178059852001</v>
       </c>
       <c r="P4">
-        <v>0.1949748624408659</v>
+        <v>0.8034178059852</v>
       </c>
       <c r="Q4">
-        <v>0.03915767742577778</v>
+        <v>1.024927842965</v>
       </c>
       <c r="R4">
-        <v>0.3524190968320001</v>
+        <v>9.224350586685</v>
       </c>
       <c r="S4">
-        <v>0.01707144183636938</v>
+        <v>0.3111574065118323</v>
       </c>
       <c r="T4">
-        <v>0.01707144183636939</v>
+        <v>0.3111574065118322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>34.355763</v>
       </c>
       <c r="I5">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="J5">
-        <v>0.560751794520949</v>
+        <v>0.3872921463699351</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0009183333333333334</v>
+        <v>0.02189866666666667</v>
       </c>
       <c r="N5">
-        <v>0.002755</v>
+        <v>0.065696</v>
       </c>
       <c r="O5">
-        <v>0.008176384346453142</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="P5">
-        <v>0.008176384346453142</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="Q5">
-        <v>0.010516680785</v>
+        <v>0.250781800672</v>
       </c>
       <c r="R5">
-        <v>0.09465012706499999</v>
+        <v>2.257036206048</v>
       </c>
       <c r="S5">
-        <v>0.004584922194966597</v>
+        <v>0.07613473985810289</v>
       </c>
       <c r="T5">
-        <v>0.004584922194966597</v>
+        <v>0.07613473985810289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.451921</v>
+        <v>7.182390333333333</v>
       </c>
       <c r="H6">
-        <v>34.355763</v>
+        <v>21.547171</v>
       </c>
       <c r="I6">
-        <v>0.560751794520949</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J6">
-        <v>0.560751794520949</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.268495</v>
       </c>
       <c r="O6">
-        <v>0.796848753212681</v>
+        <v>0.8034178059852001</v>
       </c>
       <c r="P6">
-        <v>0.796848753212681</v>
+        <v>0.8034178059852</v>
       </c>
       <c r="Q6">
-        <v>1.024927842965</v>
+        <v>0.6428119641827778</v>
       </c>
       <c r="R6">
-        <v>9.224350586684999</v>
+        <v>5.785307677644999</v>
       </c>
       <c r="S6">
-        <v>0.4468343683257917</v>
+        <v>0.1951510099201395</v>
       </c>
       <c r="T6">
-        <v>0.4468343683257917</v>
+        <v>0.1951510099201395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.451921</v>
+        <v>7.182390333333333</v>
       </c>
       <c r="H7">
-        <v>34.355763</v>
+        <v>21.547171</v>
       </c>
       <c r="I7">
-        <v>0.560751794520949</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="J7">
-        <v>0.560751794520949</v>
+        <v>0.2429010266717122</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.065696</v>
       </c>
       <c r="O7">
-        <v>0.1949748624408659</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="P7">
-        <v>0.1949748624408659</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="Q7">
-        <v>0.250781800672</v>
+        <v>0.1572847717795555</v>
       </c>
       <c r="R7">
-        <v>2.257036206048</v>
+        <v>1.415562946016</v>
       </c>
       <c r="S7">
-        <v>0.1093325040001907</v>
+        <v>0.04775001675157261</v>
       </c>
       <c r="T7">
-        <v>0.1093325040001907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.182390333333333</v>
-      </c>
-      <c r="H8">
-        <v>21.547171</v>
-      </c>
-      <c r="I8">
-        <v>0.3516910628676694</v>
-      </c>
-      <c r="J8">
-        <v>0.3516910628676694</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0009183333333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.002755</v>
-      </c>
-      <c r="O8">
-        <v>0.008176384346453142</v>
-      </c>
-      <c r="P8">
-        <v>0.008176384346453142</v>
-      </c>
-      <c r="Q8">
-        <v>0.006595828456111111</v>
-      </c>
-      <c r="R8">
-        <v>0.059362456105</v>
-      </c>
-      <c r="S8">
-        <v>0.00287556130121868</v>
-      </c>
-      <c r="T8">
-        <v>0.00287556130121868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.182390333333333</v>
-      </c>
-      <c r="H9">
-        <v>21.547171</v>
-      </c>
-      <c r="I9">
-        <v>0.3516910628676694</v>
-      </c>
-      <c r="J9">
-        <v>0.3516910628676694</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.08949833333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.268495</v>
-      </c>
-      <c r="O9">
-        <v>0.796848753212681</v>
-      </c>
-      <c r="P9">
-        <v>0.796848753212681</v>
-      </c>
-      <c r="Q9">
-        <v>0.6428119641827778</v>
-      </c>
-      <c r="R9">
-        <v>5.785307677644999</v>
-      </c>
-      <c r="S9">
-        <v>0.280244584962145</v>
-      </c>
-      <c r="T9">
-        <v>0.280244584962145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.182390333333333</v>
-      </c>
-      <c r="H10">
-        <v>21.547171</v>
-      </c>
-      <c r="I10">
-        <v>0.3516910628676694</v>
-      </c>
-      <c r="J10">
-        <v>0.3516910628676694</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02189866666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.065696</v>
-      </c>
-      <c r="O10">
-        <v>0.1949748624408659</v>
-      </c>
-      <c r="P10">
-        <v>0.1949748624408659</v>
-      </c>
-      <c r="Q10">
-        <v>0.1572847717795555</v>
-      </c>
-      <c r="R10">
-        <v>1.415562946016</v>
-      </c>
-      <c r="S10">
-        <v>0.06857091660430578</v>
-      </c>
-      <c r="T10">
-        <v>0.06857091660430578</v>
+        <v>0.04775001675157261</v>
       </c>
     </row>
   </sheetData>
